--- a/R_Logit_Models/Location_Choice/SocioEconomicVars/RunsOutput.xlsx
+++ b/R_Logit_Models/Location_Choice/SocioEconomicVars/RunsOutput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\University\Summer 2020\TMG\GitHub_PORPOS\PORPOS-TMG\R_Logit_Models\Location_Choice\SocioEconomicVars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC1E9F3-CA00-4FFE-A70D-1525D519E1F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF87A327-D07C-40D3-9080-D78C06977472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="2040" windowWidth="23040" windowHeight="10656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MetricsOutput" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="50">
   <si>
     <t>Segment</t>
   </si>
@@ -150,6 +150,36 @@
   </si>
   <si>
     <t>W. Avgs.:</t>
+  </si>
+  <si>
+    <t>Dist | Family</t>
+  </si>
+  <si>
+    <t>Dist | Level</t>
+  </si>
+  <si>
+    <t>Dist | Status</t>
+  </si>
+  <si>
+    <t>Dist | Family + Level</t>
+  </si>
+  <si>
+    <t>Dist | Family + Status</t>
+  </si>
+  <si>
+    <t>Dist | Licence + Cars + Mode + Income</t>
+  </si>
+  <si>
+    <t>FULL MODELS (Non-Segmented)</t>
+  </si>
+  <si>
+    <t>Dist | Family + Level + Cars + Mode</t>
+  </si>
+  <si>
+    <t>Dist | Family + Level + Cars + Mode + Licence</t>
+  </si>
+  <si>
+    <t>Dist | Family + Level + Cars + Mode + Licence + Income</t>
   </si>
 </sst>
 </file>
@@ -1016,20 +1046,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:W177"/>
+  <dimension ref="B2:AF177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="O177" sqref="O177"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="18" max="18" width="47.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1075,14 +1109,14 @@
       <c r="P3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1128,11 +1162,11 @@
       <c r="P4" s="3">
         <v>0.12579777714725199</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>0</v>
       </c>
@@ -1178,11 +1212,11 @@
       <c r="P5" s="3">
         <v>8.29813397082938E-2</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="X5" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -1229,7 +1263,7 @@
         <v>7.5120172038363894E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>2</v>
       </c>
@@ -1275,14 +1309,14 @@
       <c r="P7" s="3">
         <v>0.334146089552809</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="X7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>3</v>
       </c>
@@ -1328,11 +1362,11 @@
       <c r="P8" s="3">
         <v>7.6641374708970894E-2</v>
       </c>
-      <c r="W8" s="2" t="s">
+      <c r="X8" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>4</v>
       </c>
@@ -1379,7 +1413,7 @@
         <v>2.8535968081265E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>5</v>
       </c>
@@ -1426,7 +1460,7 @@
         <v>0.113372747486865</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>6</v>
       </c>
@@ -1473,7 +1507,7 @@
         <v>5.0296037770587901E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.3">
       <c r="I12" s="4" t="s">
         <v>39</v>
       </c>
@@ -1506,12 +1540,12 @@
         <v>0.13854911960752647</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
@@ -1557,8 +1591,53 @@
       <c r="P14" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="R14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1604,8 +1683,53 @@
       <c r="P15" s="3">
         <v>0.12879999891287</v>
       </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="R15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15" s="3">
+        <v>1.07417263851073</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0.23365248297691099</v>
+      </c>
+      <c r="U15" s="3">
+        <v>1.6588800707318601</v>
+      </c>
+      <c r="V15" s="3">
+        <v>1.41366639507652</v>
+      </c>
+      <c r="W15" s="3">
+        <v>2.9278224422121601</v>
+      </c>
+      <c r="X15" s="3">
+        <v>2.4375357438902401</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>-9.5668568185159605E-2</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0.12031377899045</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0.13843152327816199</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0.14644047468700599</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>9.5062534692644293E-2</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>1.7431891121182399E-2</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0.34034189371701701</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>0.13778186462605799</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>0</v>
       </c>
@@ -1651,8 +1775,53 @@
       <c r="P16" s="3">
         <v>9.4572524152604601E-2</v>
       </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S16" s="3">
+        <v>1.39561907131255</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0.86732239833031899</v>
+      </c>
+      <c r="U16" s="3">
+        <v>2.5935672496356998</v>
+      </c>
+      <c r="V16" s="3">
+        <v>1.56964068772555</v>
+      </c>
+      <c r="W16" s="3">
+        <v>4.6468240106267604</v>
+      </c>
+      <c r="X16" s="3">
+        <v>3.7806558120209099</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>-9.0250743287198107E-2</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>0.11619372442019101</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>0.134251688545409</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>0.14075450677231099</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>9.3178024563062997E-2</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>1.09696234638419E-2</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>0.35340886426898399</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>0.15638127875228999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>1</v>
       </c>
@@ -1698,8 +1867,53 @@
       <c r="P17" s="3">
         <v>7.8536114608374799E-2</v>
       </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0.99487537500000001</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0.25327625399999998</v>
+      </c>
+      <c r="U17" s="3">
+        <v>2.082887334</v>
+      </c>
+      <c r="V17" s="3">
+        <v>1.3682147149999999</v>
+      </c>
+      <c r="W17" s="3">
+        <v>2.7957325009999998</v>
+      </c>
+      <c r="X17" s="3">
+        <v>2.2835529600000002</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>-9.2560687000000003E-2</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0.116944065</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0.13265764099999999</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>0.14331904000000001</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>9.1095511000000004E-2</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>1.3527143E-2</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>0.33191622100000001</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>0.13087130199999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>2</v>
       </c>
@@ -1745,8 +1959,53 @@
       <c r="P18" s="3">
         <v>0.33722776605042198</v>
       </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S18" s="3">
+        <v>1.4678916244574001</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0.81729524791077501</v>
+      </c>
+      <c r="U18" s="3">
+        <v>2.3013612024644701</v>
+      </c>
+      <c r="V18" s="3">
+        <v>1.6218905014382401</v>
+      </c>
+      <c r="W18" s="3">
+        <v>4.5990427454635601</v>
+      </c>
+      <c r="X18" s="3">
+        <v>3.78950952345031</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>-9.4799771339620906E-2</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0.11870395634379299</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0.13449139367188101</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0.142258271141215</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>9.4225322879559301E-2</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>1.4896706408166699E-2</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>0.36131521656140098</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>0.16374441320609801</v>
+      </c>
+    </row>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>3</v>
       </c>
@@ -1792,8 +2051,53 @@
       <c r="P19" s="3">
         <v>8.3600654703852695E-2</v>
       </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S19" s="3">
+        <v>1.1549434604728099</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0.22173345882752599</v>
+      </c>
+      <c r="U19" s="3">
+        <v>1.61320849951836</v>
+      </c>
+      <c r="V19" s="3">
+        <v>1.4882231381575599</v>
+      </c>
+      <c r="W19" s="3">
+        <v>2.9360629410887502</v>
+      </c>
+      <c r="X19" s="3">
+        <v>2.4440193375853299</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>-9.5842080532601501E-2</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>0.118772169167804</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>0.13573623704066701</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>0.14540079940004699</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>9.3575747606284398E-2</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>1.5864867869886098E-2</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>0.34531145176418798</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>0.143571183107499</v>
+      </c>
+    </row>
+    <row r="20" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>4</v>
       </c>
@@ -1839,8 +2143,53 @@
       <c r="P20" s="3">
         <v>3.6077634879509497E-2</v>
       </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0.71821163296799295</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-4.2298103780298697E-2</v>
+      </c>
+      <c r="U20" s="3">
+        <v>2.1995891145363302</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0.98433341910920202</v>
+      </c>
+      <c r="W20" s="3">
+        <v>2.83625184081242</v>
+      </c>
+      <c r="X20" s="3">
+        <v>2.1785149808658901</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>-9.3158253811463101E-2</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0.116739427012278</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0.133770030156977</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0.14601631299383</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>9.1396872400835397E-2</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>1.3495554790453499E-2</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0.328558417887379</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>0.12734777166820599</v>
+      </c>
+    </row>
+    <row r="21" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>5</v>
       </c>
@@ -1886,8 +2235,53 @@
       <c r="P21" s="3">
         <v>0.115014883866897</v>
       </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S21" s="3">
+        <v>1.33704946406522</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0.44605950898278701</v>
+      </c>
+      <c r="U21" s="3">
+        <v>1.723887834543</v>
+      </c>
+      <c r="V21" s="3">
+        <v>1.8664457063289499</v>
+      </c>
+      <c r="W21" s="3">
+        <v>3.3255768875349001</v>
+      </c>
+      <c r="X21" s="3">
+        <v>2.1947043852948598</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>-9.5232675695820904E-2</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>0.119467939972715</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0.13763559515406701</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>0.142247239120663</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>9.3632124393317195E-2</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>1.64540750649886E-2</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>0.35437804802260597</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>0.15747081494655499</v>
+      </c>
+    </row>
+    <row r="22" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>6</v>
       </c>
@@ -1933,8 +2327,53 @@
       <c r="P22" s="3">
         <v>5.4140869860941097E-2</v>
       </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S22" s="3">
+        <v>1.5626891030101699</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0.67562595404192805</v>
+      </c>
+      <c r="U22" s="3">
+        <v>1.63943152792033</v>
+      </c>
+      <c r="V22" s="3">
+        <v>2.1343365739045801</v>
+      </c>
+      <c r="W22" s="3">
+        <v>3.2178186942949401</v>
+      </c>
+      <c r="X22" s="3">
+        <v>2.2107695130331</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>-9.4875661093999697E-2</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0.11862210095498001</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0.13396641499593401</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0.14253363485182499</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>9.3086320894272698E-2</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>1.46616295918457E-2</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0.35669852442459998</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>0.16136665158856001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:32" x14ac:dyDescent="0.3">
       <c r="I23" s="4" t="s">
         <v>39</v>
       </c>
@@ -1966,13 +2405,103 @@
         <f t="shared" ref="P23" si="5" xml:space="preserve"> SUM(P16*0.02067,P17*0.46589,P18*0.23417,P19*0.047,P20*0.05771,P21*0.15157,P22*0.02299)</f>
         <v>0.14220140611094359</v>
       </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S23" s="3">
+        <v>1.3661947076893399</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0.47225223054273402</v>
+      </c>
+      <c r="U23" s="3">
+        <v>1.6587071602158501</v>
+      </c>
+      <c r="V23" s="3">
+        <v>1.91644618452063</v>
+      </c>
+      <c r="W23" s="3">
+        <v>3.3795306741934201</v>
+      </c>
+      <c r="X23" s="3">
+        <v>2.1190157795467202</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>-9.4856031276892697E-2</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0.116793997271487</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0.131982648339106</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>0.141072826322726</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>9.1051261221683305E-2</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>1.3292164327000301E-2</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>0.35778499427622701</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>0.16286145423719001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S24" s="3">
+        <v>1.68633904150958</v>
+      </c>
+      <c r="T24" s="3">
+        <v>1.09619983622425</v>
+      </c>
+      <c r="U24" s="3">
+        <v>2.4369273702800398</v>
+      </c>
+      <c r="V24" s="3">
+        <v>2.0479502673772201</v>
+      </c>
+      <c r="W24" s="3">
+        <v>5.16906435842224</v>
+      </c>
+      <c r="X24" s="3">
+        <v>3.6187921097472202</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>-9.4706648206646898E-2</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0.118458390177353</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0.135933595373949</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0.13819943326227899</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>9.4438655710712305E-2</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>1.38941213623456E-2</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0.37797939870914998</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>0.18731687289802801</v>
+      </c>
+    </row>
+    <row r="25" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>0</v>
       </c>
@@ -2018,8 +2547,53 @@
       <c r="P25" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S25" s="3">
+        <v>2.02635801839345</v>
+      </c>
+      <c r="T25" s="3">
+        <v>1.4163334285877101</v>
+      </c>
+      <c r="U25" s="3">
+        <v>2.2982886861318002</v>
+      </c>
+      <c r="V25" s="3">
+        <v>2.4229613038595099</v>
+      </c>
+      <c r="W25" s="3">
+        <v>5.2148574746874603</v>
+      </c>
+      <c r="X25" s="3">
+        <v>3.7729222026228699</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>-9.5013768997154205E-2</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0.11593451568895</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0.13356399336802899</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0.13564363881494901</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>9.2227077494835594E-2</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>1.2337447937737601E-2</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0.379896544058546</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>0.19029057047510001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>13</v>
       </c>
@@ -2065,8 +2639,53 @@
       <c r="P26" s="3">
         <v>0.13569111881818899</v>
       </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="S26" s="3">
+        <v>1.8711015162625799</v>
+      </c>
+      <c r="T26" s="3">
+        <v>1.25122043852624</v>
+      </c>
+      <c r="U26" s="3">
+        <v>2.30956424708496</v>
+      </c>
+      <c r="V26" s="3">
+        <v>2.2398272812099802</v>
+      </c>
+      <c r="W26" s="3">
+        <v>5.3274031613941402</v>
+      </c>
+      <c r="X26" s="3">
+        <v>3.65209544210148</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>-9.4993507930097906E-2</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0.119768076398363</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0.13700848340600499</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>0.13678805226117699</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>9.4878879756772394E-2</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>1.6765785786639099E-2</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>0.38109765260231399</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>0.19178689863667001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -2113,7 +2732,7 @@
         <v>9.36342595435109E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>1</v>
       </c>
@@ -2160,7 +2779,7 @@
         <v>7.8800455126407903E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>2</v>
       </c>
@@ -2207,7 +2826,7 @@
         <v>0.33826826391556902</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>3</v>
       </c>
@@ -2254,7 +2873,7 @@
         <v>8.37369192003629E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>4</v>
       </c>
@@ -2301,7 +2920,7 @@
         <v>3.5364962799642297E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>5</v>
       </c>
@@ -8423,6 +9042,1098 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:H11">
+    <cfRule type="colorScale" priority="443">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I11">
+    <cfRule type="colorScale" priority="416">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J11">
+    <cfRule type="colorScale" priority="415">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:K11">
+    <cfRule type="colorScale" priority="414">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L11">
+    <cfRule type="colorScale" priority="413">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M11">
+    <cfRule type="colorScale" priority="412">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4:N11">
+    <cfRule type="colorScale" priority="411">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:O11">
+    <cfRule type="colorScale" priority="410">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C22">
+    <cfRule type="colorScale" priority="435">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:D22">
+    <cfRule type="colorScale" priority="434">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:E22">
+    <cfRule type="colorScale" priority="433">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15:F22">
+    <cfRule type="colorScale" priority="432">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:G22">
+    <cfRule type="colorScale" priority="431">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:H22">
+    <cfRule type="colorScale" priority="430">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:I22">
+    <cfRule type="colorScale" priority="429">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:J22">
+    <cfRule type="colorScale" priority="428">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15:K22">
+    <cfRule type="colorScale" priority="427">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15:L22">
+    <cfRule type="colorScale" priority="426">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15:M22">
+    <cfRule type="colorScale" priority="425">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15:N22">
+    <cfRule type="colorScale" priority="424">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O15:O22">
+    <cfRule type="colorScale" priority="423">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C11">
+    <cfRule type="colorScale" priority="422">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D11">
+    <cfRule type="colorScale" priority="421">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E11">
+    <cfRule type="colorScale" priority="420">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F11">
+    <cfRule type="colorScale" priority="419">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G11">
+    <cfRule type="colorScale" priority="418">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H11">
+    <cfRule type="colorScale" priority="417">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4:P11">
+    <cfRule type="colorScale" priority="409">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P15:P22">
+    <cfRule type="colorScale" priority="408">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C33">
+    <cfRule type="colorScale" priority="407">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:D33">
+    <cfRule type="colorScale" priority="406">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E33">
+    <cfRule type="colorScale" priority="405">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26:F33">
+    <cfRule type="colorScale" priority="404">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:G33">
+    <cfRule type="colorScale" priority="403">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:H33">
+    <cfRule type="colorScale" priority="402">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26:I33">
+    <cfRule type="colorScale" priority="401">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:J33">
+    <cfRule type="colorScale" priority="400">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26:K33">
+    <cfRule type="colorScale" priority="399">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26:L33">
+    <cfRule type="colorScale" priority="398">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M26:M33">
+    <cfRule type="colorScale" priority="397">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N26:N33">
+    <cfRule type="colorScale" priority="396">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O26:O33">
+    <cfRule type="colorScale" priority="395">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P26:P33">
+    <cfRule type="colorScale" priority="394">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C44">
+    <cfRule type="colorScale" priority="393">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:D44">
+    <cfRule type="colorScale" priority="392">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37:E44">
+    <cfRule type="colorScale" priority="391">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:F44">
+    <cfRule type="colorScale" priority="390">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37:G44">
+    <cfRule type="colorScale" priority="389">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:H44">
+    <cfRule type="colorScale" priority="388">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:I44">
+    <cfRule type="colorScale" priority="387">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37:J44">
+    <cfRule type="colorScale" priority="386">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37:K44">
+    <cfRule type="colorScale" priority="385">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L37:L44">
+    <cfRule type="colorScale" priority="384">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M37:M44">
+    <cfRule type="colorScale" priority="383">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N37:N44">
+    <cfRule type="colorScale" priority="382">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O37:O44">
+    <cfRule type="colorScale" priority="381">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P37:P44">
+    <cfRule type="colorScale" priority="380">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C55">
+    <cfRule type="colorScale" priority="379">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D55">
+    <cfRule type="colorScale" priority="378">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48:E55">
+    <cfRule type="colorScale" priority="377">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48:F55">
+    <cfRule type="colorScale" priority="376">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48:G55">
+    <cfRule type="colorScale" priority="375">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48:H55">
+    <cfRule type="colorScale" priority="374">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48:I55">
+    <cfRule type="colorScale" priority="373">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48:J55">
+    <cfRule type="colorScale" priority="372">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:K55">
+    <cfRule type="colorScale" priority="371">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L48:L55">
+    <cfRule type="colorScale" priority="370">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M48:M55">
+    <cfRule type="colorScale" priority="369">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N48:N55">
+    <cfRule type="colorScale" priority="368">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O48:O55">
+    <cfRule type="colorScale" priority="367">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P48:P55">
+    <cfRule type="colorScale" priority="366">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:C66">
+    <cfRule type="colorScale" priority="365">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59:D66">
+    <cfRule type="colorScale" priority="364">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59:E66">
+    <cfRule type="colorScale" priority="363">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59:F66">
+    <cfRule type="colorScale" priority="362">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G59:G66">
+    <cfRule type="colorScale" priority="361">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59:H66">
+    <cfRule type="colorScale" priority="360">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I59:I66">
+    <cfRule type="colorScale" priority="359">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J59:J66">
+    <cfRule type="colorScale" priority="358">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59:K66">
+    <cfRule type="colorScale" priority="357">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L59:L66">
+    <cfRule type="colorScale" priority="356">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M59:M66">
+    <cfRule type="colorScale" priority="355">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N59:N66">
+    <cfRule type="colorScale" priority="354">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O59:O66">
+    <cfRule type="colorScale" priority="353">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P59:P66">
+    <cfRule type="colorScale" priority="352">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70:C77">
+    <cfRule type="colorScale" priority="351">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D70:D77">
+    <cfRule type="colorScale" priority="350">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70:E77">
+    <cfRule type="colorScale" priority="349">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70:F77">
+    <cfRule type="colorScale" priority="348">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70:G77">
+    <cfRule type="colorScale" priority="347">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70:H77">
+    <cfRule type="colorScale" priority="346">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I70:I77">
     <cfRule type="colorScale" priority="345">
       <colorScale>
         <cfvo type="min"/>
@@ -8434,7 +10145,319 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I11">
+  <conditionalFormatting sqref="J70:J77">
+    <cfRule type="colorScale" priority="344">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K70:K77">
+    <cfRule type="colorScale" priority="343">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L70:L77">
+    <cfRule type="colorScale" priority="342">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M70:M77">
+    <cfRule type="colorScale" priority="341">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N70:N77">
+    <cfRule type="colorScale" priority="340">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O70:O77">
+    <cfRule type="colorScale" priority="339">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P70:P77">
+    <cfRule type="colorScale" priority="338">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81:C88">
+    <cfRule type="colorScale" priority="337">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D81:D88">
+    <cfRule type="colorScale" priority="336">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E88">
+    <cfRule type="colorScale" priority="335">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F81:F88">
+    <cfRule type="colorScale" priority="334">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G81:G88">
+    <cfRule type="colorScale" priority="333">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81:H88">
+    <cfRule type="colorScale" priority="332">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I81:I88">
+    <cfRule type="colorScale" priority="331">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J81:J88">
+    <cfRule type="colorScale" priority="330">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K81:K88">
+    <cfRule type="colorScale" priority="329">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L81:L88">
+    <cfRule type="colorScale" priority="328">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M81:M88">
+    <cfRule type="colorScale" priority="327">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N81:N88">
+    <cfRule type="colorScale" priority="326">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O81:O88">
+    <cfRule type="colorScale" priority="325">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P81:P88">
+    <cfRule type="colorScale" priority="324">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C92:C99">
+    <cfRule type="colorScale" priority="323">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D92:D99">
+    <cfRule type="colorScale" priority="322">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92:E99">
+    <cfRule type="colorScale" priority="321">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F92:F99">
+    <cfRule type="colorScale" priority="320">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G92:G99">
+    <cfRule type="colorScale" priority="319">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H92:H99">
     <cfRule type="colorScale" priority="318">
       <colorScale>
         <cfvo type="min"/>
@@ -8446,7 +10469,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J11">
+  <conditionalFormatting sqref="I92:I99">
     <cfRule type="colorScale" priority="317">
       <colorScale>
         <cfvo type="min"/>
@@ -8458,7 +10481,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K11">
+  <conditionalFormatting sqref="J92:J99">
     <cfRule type="colorScale" priority="316">
       <colorScale>
         <cfvo type="min"/>
@@ -8470,7 +10493,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L11">
+  <conditionalFormatting sqref="K92:K99">
     <cfRule type="colorScale" priority="315">
       <colorScale>
         <cfvo type="min"/>
@@ -8482,7 +10505,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M11">
+  <conditionalFormatting sqref="L92:L99">
     <cfRule type="colorScale" priority="314">
       <colorScale>
         <cfvo type="min"/>
@@ -8494,7 +10517,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N11">
+  <conditionalFormatting sqref="M92:M99">
     <cfRule type="colorScale" priority="313">
       <colorScale>
         <cfvo type="min"/>
@@ -8506,7 +10529,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4:O11">
+  <conditionalFormatting sqref="N92:N99">
     <cfRule type="colorScale" priority="312">
       <colorScale>
         <cfvo type="min"/>
@@ -8518,235 +10541,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C22">
-    <cfRule type="colorScale" priority="337">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D22">
-    <cfRule type="colorScale" priority="336">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15:E22">
-    <cfRule type="colorScale" priority="335">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15:F22">
-    <cfRule type="colorScale" priority="334">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:G22">
-    <cfRule type="colorScale" priority="333">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15:H22">
-    <cfRule type="colorScale" priority="332">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I22">
-    <cfRule type="colorScale" priority="331">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15:J22">
-    <cfRule type="colorScale" priority="330">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15:K22">
-    <cfRule type="colorScale" priority="329">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15:L22">
-    <cfRule type="colorScale" priority="328">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M15:M22">
-    <cfRule type="colorScale" priority="327">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N15:N22">
-    <cfRule type="colorScale" priority="326">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O15:O22">
-    <cfRule type="colorScale" priority="325">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C11">
-    <cfRule type="colorScale" priority="324">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D11">
-    <cfRule type="colorScale" priority="323">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E11">
-    <cfRule type="colorScale" priority="322">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F11">
-    <cfRule type="colorScale" priority="321">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G11">
-    <cfRule type="colorScale" priority="320">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H11">
-    <cfRule type="colorScale" priority="319">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4:P11">
+  <conditionalFormatting sqref="O92:O99">
     <cfRule type="colorScale" priority="311">
       <colorScale>
         <cfvo type="min"/>
@@ -8758,7 +10553,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P15:P22">
+  <conditionalFormatting sqref="P92:P99">
     <cfRule type="colorScale" priority="310">
       <colorScale>
         <cfvo type="min"/>
@@ -8770,7 +10565,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C33">
+  <conditionalFormatting sqref="C103:C110">
     <cfRule type="colorScale" priority="309">
       <colorScale>
         <cfvo type="min"/>
@@ -8782,7 +10577,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D33">
+  <conditionalFormatting sqref="D103:D110">
     <cfRule type="colorScale" priority="308">
       <colorScale>
         <cfvo type="min"/>
@@ -8794,7 +10589,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E33">
+  <conditionalFormatting sqref="E103:E110">
     <cfRule type="colorScale" priority="307">
       <colorScale>
         <cfvo type="min"/>
@@ -8806,7 +10601,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F33">
+  <conditionalFormatting sqref="F103:F110">
     <cfRule type="colorScale" priority="306">
       <colorScale>
         <cfvo type="min"/>
@@ -8818,7 +10613,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26:G33">
+  <conditionalFormatting sqref="G103:G110">
     <cfRule type="colorScale" priority="305">
       <colorScale>
         <cfvo type="min"/>
@@ -8830,7 +10625,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26:H33">
+  <conditionalFormatting sqref="H103:H110">
     <cfRule type="colorScale" priority="304">
       <colorScale>
         <cfvo type="min"/>
@@ -8842,7 +10637,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:I33">
+  <conditionalFormatting sqref="I103:I110">
     <cfRule type="colorScale" priority="303">
       <colorScale>
         <cfvo type="min"/>
@@ -8854,7 +10649,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:J33">
+  <conditionalFormatting sqref="J103:J110">
     <cfRule type="colorScale" priority="302">
       <colorScale>
         <cfvo type="min"/>
@@ -8866,7 +10661,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:K33">
+  <conditionalFormatting sqref="K103:K110">
     <cfRule type="colorScale" priority="301">
       <colorScale>
         <cfvo type="min"/>
@@ -8878,7 +10673,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L26:L33">
+  <conditionalFormatting sqref="L103:L110">
     <cfRule type="colorScale" priority="300">
       <colorScale>
         <cfvo type="min"/>
@@ -8890,7 +10685,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M26:M33">
+  <conditionalFormatting sqref="M103:M110">
     <cfRule type="colorScale" priority="299">
       <colorScale>
         <cfvo type="min"/>
@@ -8902,7 +10697,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N26:N33">
+  <conditionalFormatting sqref="N103:N110">
     <cfRule type="colorScale" priority="298">
       <colorScale>
         <cfvo type="min"/>
@@ -8914,7 +10709,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O26:O33">
+  <conditionalFormatting sqref="O103:O110">
     <cfRule type="colorScale" priority="297">
       <colorScale>
         <cfvo type="min"/>
@@ -8926,7 +10721,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P33">
+  <conditionalFormatting sqref="P103:P110">
     <cfRule type="colorScale" priority="296">
       <colorScale>
         <cfvo type="min"/>
@@ -8938,7 +10733,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37:C44">
+  <conditionalFormatting sqref="C114:C121">
     <cfRule type="colorScale" priority="295">
       <colorScale>
         <cfvo type="min"/>
@@ -8950,7 +10745,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37:D44">
+  <conditionalFormatting sqref="D114:D121">
     <cfRule type="colorScale" priority="294">
       <colorScale>
         <cfvo type="min"/>
@@ -8962,7 +10757,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37:E44">
+  <conditionalFormatting sqref="E114:E121">
     <cfRule type="colorScale" priority="293">
       <colorScale>
         <cfvo type="min"/>
@@ -8974,7 +10769,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37:F44">
+  <conditionalFormatting sqref="F114:F121">
     <cfRule type="colorScale" priority="292">
       <colorScale>
         <cfvo type="min"/>
@@ -8986,7 +10781,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37:G44">
+  <conditionalFormatting sqref="G114:G121">
     <cfRule type="colorScale" priority="291">
       <colorScale>
         <cfvo type="min"/>
@@ -8998,7 +10793,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37:H44">
+  <conditionalFormatting sqref="H114:H121">
     <cfRule type="colorScale" priority="290">
       <colorScale>
         <cfvo type="min"/>
@@ -9010,7 +10805,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:I44">
+  <conditionalFormatting sqref="I114:I121">
     <cfRule type="colorScale" priority="289">
       <colorScale>
         <cfvo type="min"/>
@@ -9022,7 +10817,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37:J44">
+  <conditionalFormatting sqref="J114:J121">
     <cfRule type="colorScale" priority="288">
       <colorScale>
         <cfvo type="min"/>
@@ -9034,7 +10829,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:K44">
+  <conditionalFormatting sqref="K114:K121">
     <cfRule type="colorScale" priority="287">
       <colorScale>
         <cfvo type="min"/>
@@ -9046,7 +10841,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L37:L44">
+  <conditionalFormatting sqref="L114:L121">
     <cfRule type="colorScale" priority="286">
       <colorScale>
         <cfvo type="min"/>
@@ -9058,7 +10853,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M37:M44">
+  <conditionalFormatting sqref="M114:M121">
     <cfRule type="colorScale" priority="285">
       <colorScale>
         <cfvo type="min"/>
@@ -9070,7 +10865,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N37:N44">
+  <conditionalFormatting sqref="N114:N121">
     <cfRule type="colorScale" priority="284">
       <colorScale>
         <cfvo type="min"/>
@@ -9082,7 +10877,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O37:O44">
+  <conditionalFormatting sqref="O114:O121">
     <cfRule type="colorScale" priority="283">
       <colorScale>
         <cfvo type="min"/>
@@ -9094,7 +10889,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P37:P44">
+  <conditionalFormatting sqref="P114:P121">
     <cfRule type="colorScale" priority="282">
       <colorScale>
         <cfvo type="min"/>
@@ -9106,7 +10901,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48:C55">
+  <conditionalFormatting sqref="C125:C132">
     <cfRule type="colorScale" priority="281">
       <colorScale>
         <cfvo type="min"/>
@@ -9118,7 +10913,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D55">
+  <conditionalFormatting sqref="D125:D132">
     <cfRule type="colorScale" priority="280">
       <colorScale>
         <cfvo type="min"/>
@@ -9130,7 +10925,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48:E55">
+  <conditionalFormatting sqref="E125:E132">
     <cfRule type="colorScale" priority="279">
       <colorScale>
         <cfvo type="min"/>
@@ -9142,7 +10937,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48:F55">
+  <conditionalFormatting sqref="F125:F132">
     <cfRule type="colorScale" priority="278">
       <colorScale>
         <cfvo type="min"/>
@@ -9154,7 +10949,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G48:G55">
+  <conditionalFormatting sqref="G125:G132">
     <cfRule type="colorScale" priority="277">
       <colorScale>
         <cfvo type="min"/>
@@ -9166,7 +10961,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48:H55">
+  <conditionalFormatting sqref="H125:H132">
     <cfRule type="colorScale" priority="276">
       <colorScale>
         <cfvo type="min"/>
@@ -9178,7 +10973,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:I55">
+  <conditionalFormatting sqref="I125:I132">
     <cfRule type="colorScale" priority="275">
       <colorScale>
         <cfvo type="min"/>
@@ -9190,7 +10985,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48:J55">
+  <conditionalFormatting sqref="J125:J132">
     <cfRule type="colorScale" priority="274">
       <colorScale>
         <cfvo type="min"/>
@@ -9202,7 +10997,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:K55">
+  <conditionalFormatting sqref="K125:K132">
     <cfRule type="colorScale" priority="273">
       <colorScale>
         <cfvo type="min"/>
@@ -9214,7 +11009,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L48:L55">
+  <conditionalFormatting sqref="L125:L132">
     <cfRule type="colorScale" priority="272">
       <colorScale>
         <cfvo type="min"/>
@@ -9226,7 +11021,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M48:M55">
+  <conditionalFormatting sqref="M125:M132">
     <cfRule type="colorScale" priority="271">
       <colorScale>
         <cfvo type="min"/>
@@ -9238,7 +11033,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N48:N55">
+  <conditionalFormatting sqref="N125:N132">
     <cfRule type="colorScale" priority="270">
       <colorScale>
         <cfvo type="min"/>
@@ -9250,7 +11045,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O48:O55">
+  <conditionalFormatting sqref="O125:O132">
     <cfRule type="colorScale" priority="269">
       <colorScale>
         <cfvo type="min"/>
@@ -9262,7 +11057,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P48:P55">
+  <conditionalFormatting sqref="P125:P132">
     <cfRule type="colorScale" priority="268">
       <colorScale>
         <cfvo type="min"/>
@@ -9274,7 +11069,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59:C66">
+  <conditionalFormatting sqref="C136:C143">
     <cfRule type="colorScale" priority="267">
       <colorScale>
         <cfvo type="min"/>
@@ -9286,7 +11081,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59:D66">
+  <conditionalFormatting sqref="D136:D143">
     <cfRule type="colorScale" priority="266">
       <colorScale>
         <cfvo type="min"/>
@@ -9298,7 +11093,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59:E66">
+  <conditionalFormatting sqref="E136:E143">
     <cfRule type="colorScale" priority="265">
       <colorScale>
         <cfvo type="min"/>
@@ -9310,7 +11105,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F59:F66">
+  <conditionalFormatting sqref="F136:F143">
     <cfRule type="colorScale" priority="264">
       <colorScale>
         <cfvo type="min"/>
@@ -9322,7 +11117,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G59:G66">
+  <conditionalFormatting sqref="G136:G143">
     <cfRule type="colorScale" priority="263">
       <colorScale>
         <cfvo type="min"/>
@@ -9334,7 +11129,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59:H66">
+  <conditionalFormatting sqref="H136:H143">
     <cfRule type="colorScale" priority="262">
       <colorScale>
         <cfvo type="min"/>
@@ -9346,7 +11141,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59:I66">
+  <conditionalFormatting sqref="I136:I143">
     <cfRule type="colorScale" priority="261">
       <colorScale>
         <cfvo type="min"/>
@@ -9358,7 +11153,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J59:J66">
+  <conditionalFormatting sqref="J136:J143">
     <cfRule type="colorScale" priority="260">
       <colorScale>
         <cfvo type="min"/>
@@ -9370,7 +11165,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:K66">
+  <conditionalFormatting sqref="K136:K143">
     <cfRule type="colorScale" priority="259">
       <colorScale>
         <cfvo type="min"/>
@@ -9382,7 +11177,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L59:L66">
+  <conditionalFormatting sqref="L136:L143">
     <cfRule type="colorScale" priority="258">
       <colorScale>
         <cfvo type="min"/>
@@ -9394,7 +11189,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M59:M66">
+  <conditionalFormatting sqref="M136:M143">
     <cfRule type="colorScale" priority="257">
       <colorScale>
         <cfvo type="min"/>
@@ -9406,7 +11201,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N59:N66">
+  <conditionalFormatting sqref="N136:N143">
     <cfRule type="colorScale" priority="256">
       <colorScale>
         <cfvo type="min"/>
@@ -9418,7 +11213,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O59:O66">
+  <conditionalFormatting sqref="O136:O143">
     <cfRule type="colorScale" priority="255">
       <colorScale>
         <cfvo type="min"/>
@@ -9430,7 +11225,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P59:P66">
+  <conditionalFormatting sqref="P136:P143">
     <cfRule type="colorScale" priority="254">
       <colorScale>
         <cfvo type="min"/>
@@ -9442,7 +11237,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C70:C77">
+  <conditionalFormatting sqref="C147:C154">
     <cfRule type="colorScale" priority="253">
       <colorScale>
         <cfvo type="min"/>
@@ -9454,7 +11249,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70:D77">
+  <conditionalFormatting sqref="D147:D154">
     <cfRule type="colorScale" priority="252">
       <colorScale>
         <cfvo type="min"/>
@@ -9466,7 +11261,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70:E77">
+  <conditionalFormatting sqref="E147:E154">
     <cfRule type="colorScale" priority="251">
       <colorScale>
         <cfvo type="min"/>
@@ -9478,7 +11273,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F70:F77">
+  <conditionalFormatting sqref="F147:F154">
     <cfRule type="colorScale" priority="250">
       <colorScale>
         <cfvo type="min"/>
@@ -9490,7 +11285,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G70:G77">
+  <conditionalFormatting sqref="G147:G154">
     <cfRule type="colorScale" priority="249">
       <colorScale>
         <cfvo type="min"/>
@@ -9502,7 +11297,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H70:H77">
+  <conditionalFormatting sqref="H147:H154">
     <cfRule type="colorScale" priority="248">
       <colorScale>
         <cfvo type="min"/>
@@ -9514,7 +11309,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I70:I77">
+  <conditionalFormatting sqref="I147:I154">
     <cfRule type="colorScale" priority="247">
       <colorScale>
         <cfvo type="min"/>
@@ -9526,7 +11321,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J70:J77">
+  <conditionalFormatting sqref="J147:J154">
     <cfRule type="colorScale" priority="246">
       <colorScale>
         <cfvo type="min"/>
@@ -9538,7 +11333,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70:K77">
+  <conditionalFormatting sqref="K147:K154">
     <cfRule type="colorScale" priority="245">
       <colorScale>
         <cfvo type="min"/>
@@ -9550,7 +11345,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L70:L77">
+  <conditionalFormatting sqref="L147:L154">
     <cfRule type="colorScale" priority="244">
       <colorScale>
         <cfvo type="min"/>
@@ -9562,7 +11357,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M70:M77">
+  <conditionalFormatting sqref="M147:M154">
     <cfRule type="colorScale" priority="243">
       <colorScale>
         <cfvo type="min"/>
@@ -9574,7 +11369,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N70:N77">
+  <conditionalFormatting sqref="N147:N154">
     <cfRule type="colorScale" priority="242">
       <colorScale>
         <cfvo type="min"/>
@@ -9586,7 +11381,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O70:O77">
+  <conditionalFormatting sqref="O147:O154">
     <cfRule type="colorScale" priority="241">
       <colorScale>
         <cfvo type="min"/>
@@ -9598,7 +11393,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P70:P77">
+  <conditionalFormatting sqref="P147:P154">
     <cfRule type="colorScale" priority="240">
       <colorScale>
         <cfvo type="min"/>
@@ -9610,7 +11405,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C81:C88">
+  <conditionalFormatting sqref="C158:C165">
     <cfRule type="colorScale" priority="239">
       <colorScale>
         <cfvo type="min"/>
@@ -9622,7 +11417,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D81:D88">
+  <conditionalFormatting sqref="D158:D165">
     <cfRule type="colorScale" priority="238">
       <colorScale>
         <cfvo type="min"/>
@@ -9634,7 +11429,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E88">
+  <conditionalFormatting sqref="E158:E165">
     <cfRule type="colorScale" priority="237">
       <colorScale>
         <cfvo type="min"/>
@@ -9646,7 +11441,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F81:F88">
+  <conditionalFormatting sqref="F158:F165">
     <cfRule type="colorScale" priority="236">
       <colorScale>
         <cfvo type="min"/>
@@ -9658,7 +11453,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G81:G88">
+  <conditionalFormatting sqref="G158:G165">
     <cfRule type="colorScale" priority="235">
       <colorScale>
         <cfvo type="min"/>
@@ -9670,7 +11465,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H81:H88">
+  <conditionalFormatting sqref="H158:H165">
     <cfRule type="colorScale" priority="234">
       <colorScale>
         <cfvo type="min"/>
@@ -9682,7 +11477,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I81:I88">
+  <conditionalFormatting sqref="I158:I165">
     <cfRule type="colorScale" priority="233">
       <colorScale>
         <cfvo type="min"/>
@@ -9694,7 +11489,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J81:J88">
+  <conditionalFormatting sqref="J158:J165">
     <cfRule type="colorScale" priority="232">
       <colorScale>
         <cfvo type="min"/>
@@ -9706,7 +11501,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K81:K88">
+  <conditionalFormatting sqref="K158:K165">
     <cfRule type="colorScale" priority="231">
       <colorScale>
         <cfvo type="min"/>
@@ -9718,7 +11513,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L81:L88">
+  <conditionalFormatting sqref="L158:L165">
     <cfRule type="colorScale" priority="230">
       <colorScale>
         <cfvo type="min"/>
@@ -9730,7 +11525,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M81:M88">
+  <conditionalFormatting sqref="M158:M165">
     <cfRule type="colorScale" priority="229">
       <colorScale>
         <cfvo type="min"/>
@@ -9742,7 +11537,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N81:N88">
+  <conditionalFormatting sqref="N158:N165">
     <cfRule type="colorScale" priority="228">
       <colorScale>
         <cfvo type="min"/>
@@ -9754,7 +11549,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O81:O88">
+  <conditionalFormatting sqref="O158:O165">
     <cfRule type="colorScale" priority="227">
       <colorScale>
         <cfvo type="min"/>
@@ -9766,7 +11561,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P81:P88">
+  <conditionalFormatting sqref="P158:P165">
     <cfRule type="colorScale" priority="226">
       <colorScale>
         <cfvo type="min"/>
@@ -9778,7 +11573,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C92:C99">
+  <conditionalFormatting sqref="C169:C176">
     <cfRule type="colorScale" priority="225">
       <colorScale>
         <cfvo type="min"/>
@@ -9790,7 +11585,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D92:D99">
+  <conditionalFormatting sqref="D169:D176">
     <cfRule type="colorScale" priority="224">
       <colorScale>
         <cfvo type="min"/>
@@ -9802,7 +11597,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E92:E99">
+  <conditionalFormatting sqref="E169:E176">
     <cfRule type="colorScale" priority="223">
       <colorScale>
         <cfvo type="min"/>
@@ -9814,7 +11609,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F92:F99">
+  <conditionalFormatting sqref="F169:F176">
     <cfRule type="colorScale" priority="222">
       <colorScale>
         <cfvo type="min"/>
@@ -9826,7 +11621,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G92:G99">
+  <conditionalFormatting sqref="G169:G176">
     <cfRule type="colorScale" priority="221">
       <colorScale>
         <cfvo type="min"/>
@@ -9838,7 +11633,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H92:H99">
+  <conditionalFormatting sqref="H169:H176">
     <cfRule type="colorScale" priority="220">
       <colorScale>
         <cfvo type="min"/>
@@ -9850,7 +11645,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I92:I99">
+  <conditionalFormatting sqref="I169:I176">
     <cfRule type="colorScale" priority="219">
       <colorScale>
         <cfvo type="min"/>
@@ -9862,7 +11657,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J92:J99">
+  <conditionalFormatting sqref="J169:J176">
     <cfRule type="colorScale" priority="218">
       <colorScale>
         <cfvo type="min"/>
@@ -9874,7 +11669,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K92:K99">
+  <conditionalFormatting sqref="K169:K176">
     <cfRule type="colorScale" priority="217">
       <colorScale>
         <cfvo type="min"/>
@@ -9886,7 +11681,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L92:L99">
+  <conditionalFormatting sqref="L169:L176">
     <cfRule type="colorScale" priority="216">
       <colorScale>
         <cfvo type="min"/>
@@ -9898,7 +11693,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M92:M99">
+  <conditionalFormatting sqref="M169:M176">
     <cfRule type="colorScale" priority="215">
       <colorScale>
         <cfvo type="min"/>
@@ -9910,7 +11705,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N92:N99">
+  <conditionalFormatting sqref="N169:N176">
     <cfRule type="colorScale" priority="214">
       <colorScale>
         <cfvo type="min"/>
@@ -9922,7 +11717,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O92:O99">
+  <conditionalFormatting sqref="O169:O176">
     <cfRule type="colorScale" priority="213">
       <colorScale>
         <cfvo type="min"/>
@@ -9934,7 +11729,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P92:P99">
+  <conditionalFormatting sqref="P169:P176">
     <cfRule type="colorScale" priority="212">
       <colorScale>
         <cfvo type="min"/>
@@ -9946,7 +11741,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C103:C110">
+  <conditionalFormatting sqref="J4:J12">
     <cfRule type="colorScale" priority="211">
       <colorScale>
         <cfvo type="min"/>
@@ -9958,7 +11753,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D103:D110">
+  <conditionalFormatting sqref="K4:K12">
     <cfRule type="colorScale" priority="210">
       <colorScale>
         <cfvo type="min"/>
@@ -9970,7 +11765,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E103:E110">
+  <conditionalFormatting sqref="L4:L12">
     <cfRule type="colorScale" priority="209">
       <colorScale>
         <cfvo type="min"/>
@@ -9982,7 +11777,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F103:F110">
+  <conditionalFormatting sqref="M4:M12">
     <cfRule type="colorScale" priority="208">
       <colorScale>
         <cfvo type="min"/>
@@ -9994,7 +11789,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G103:G110">
+  <conditionalFormatting sqref="N4:N12">
     <cfRule type="colorScale" priority="207">
       <colorScale>
         <cfvo type="min"/>
@@ -10006,7 +11801,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H103:H110">
+  <conditionalFormatting sqref="O4:O12">
     <cfRule type="colorScale" priority="206">
       <colorScale>
         <cfvo type="min"/>
@@ -10018,7 +11813,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I103:I110">
+  <conditionalFormatting sqref="P4:P12">
     <cfRule type="colorScale" priority="205">
       <colorScale>
         <cfvo type="min"/>
@@ -10030,7 +11825,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J103:J110">
+  <conditionalFormatting sqref="J15:J23">
     <cfRule type="colorScale" priority="204">
       <colorScale>
         <cfvo type="min"/>
@@ -10042,7 +11837,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K103:K110">
+  <conditionalFormatting sqref="K15:K23">
     <cfRule type="colorScale" priority="203">
       <colorScale>
         <cfvo type="min"/>
@@ -10054,7 +11849,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L103:L110">
+  <conditionalFormatting sqref="L15:L23">
     <cfRule type="colorScale" priority="202">
       <colorScale>
         <cfvo type="min"/>
@@ -10066,7 +11861,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M103:M110">
+  <conditionalFormatting sqref="M15:M23">
     <cfRule type="colorScale" priority="201">
       <colorScale>
         <cfvo type="min"/>
@@ -10078,7 +11873,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N103:N110">
+  <conditionalFormatting sqref="N15:N23">
     <cfRule type="colorScale" priority="200">
       <colorScale>
         <cfvo type="min"/>
@@ -10090,7 +11885,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O103:O110">
+  <conditionalFormatting sqref="O15:O23">
     <cfRule type="colorScale" priority="199">
       <colorScale>
         <cfvo type="min"/>
@@ -10102,7 +11897,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P103:P110">
+  <conditionalFormatting sqref="P15:P23">
     <cfRule type="colorScale" priority="198">
       <colorScale>
         <cfvo type="min"/>
@@ -10114,7 +11909,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C114:C121">
+  <conditionalFormatting sqref="J26:J34">
     <cfRule type="colorScale" priority="197">
       <colorScale>
         <cfvo type="min"/>
@@ -10126,7 +11921,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D114:D121">
+  <conditionalFormatting sqref="K26:K34">
     <cfRule type="colorScale" priority="196">
       <colorScale>
         <cfvo type="min"/>
@@ -10138,7 +11933,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E114:E121">
+  <conditionalFormatting sqref="L26:L34">
     <cfRule type="colorScale" priority="195">
       <colorScale>
         <cfvo type="min"/>
@@ -10150,7 +11945,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F114:F121">
+  <conditionalFormatting sqref="M26:M34">
     <cfRule type="colorScale" priority="194">
       <colorScale>
         <cfvo type="min"/>
@@ -10162,7 +11957,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G114:G121">
+  <conditionalFormatting sqref="N26:N34">
     <cfRule type="colorScale" priority="193">
       <colorScale>
         <cfvo type="min"/>
@@ -10174,7 +11969,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H114:H121">
+  <conditionalFormatting sqref="O26:O34">
     <cfRule type="colorScale" priority="192">
       <colorScale>
         <cfvo type="min"/>
@@ -10186,7 +11981,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I114:I121">
+  <conditionalFormatting sqref="P26:P34">
     <cfRule type="colorScale" priority="191">
       <colorScale>
         <cfvo type="min"/>
@@ -10198,7 +11993,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J114:J121">
+  <conditionalFormatting sqref="J37:J45">
     <cfRule type="colorScale" priority="190">
       <colorScale>
         <cfvo type="min"/>
@@ -10210,7 +12005,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K114:K121">
+  <conditionalFormatting sqref="K37:K45">
     <cfRule type="colorScale" priority="189">
       <colorScale>
         <cfvo type="min"/>
@@ -10222,7 +12017,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L114:L121">
+  <conditionalFormatting sqref="L37:L45">
     <cfRule type="colorScale" priority="188">
       <colorScale>
         <cfvo type="min"/>
@@ -10234,7 +12029,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M114:M121">
+  <conditionalFormatting sqref="M37:M45">
     <cfRule type="colorScale" priority="187">
       <colorScale>
         <cfvo type="min"/>
@@ -10246,7 +12041,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N114:N121">
+  <conditionalFormatting sqref="N37:N45">
     <cfRule type="colorScale" priority="186">
       <colorScale>
         <cfvo type="min"/>
@@ -10258,7 +12053,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O114:O121">
+  <conditionalFormatting sqref="O37:O45">
     <cfRule type="colorScale" priority="185">
       <colorScale>
         <cfvo type="min"/>
@@ -10270,7 +12065,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P114:P121">
+  <conditionalFormatting sqref="P37:P45">
     <cfRule type="colorScale" priority="184">
       <colorScale>
         <cfvo type="min"/>
@@ -10282,7 +12077,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C125:C132">
+  <conditionalFormatting sqref="J48:J56">
     <cfRule type="colorScale" priority="183">
       <colorScale>
         <cfvo type="min"/>
@@ -10294,7 +12089,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D125:D132">
+  <conditionalFormatting sqref="K48:K56">
     <cfRule type="colorScale" priority="182">
       <colorScale>
         <cfvo type="min"/>
@@ -10306,7 +12101,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E125:E132">
+  <conditionalFormatting sqref="L48:L56">
     <cfRule type="colorScale" priority="181">
       <colorScale>
         <cfvo type="min"/>
@@ -10318,7 +12113,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F125:F132">
+  <conditionalFormatting sqref="M48:M56">
     <cfRule type="colorScale" priority="180">
       <colorScale>
         <cfvo type="min"/>
@@ -10330,7 +12125,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G125:G132">
+  <conditionalFormatting sqref="N48:N56">
     <cfRule type="colorScale" priority="179">
       <colorScale>
         <cfvo type="min"/>
@@ -10342,7 +12137,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H125:H132">
+  <conditionalFormatting sqref="O48:O56">
     <cfRule type="colorScale" priority="178">
       <colorScale>
         <cfvo type="min"/>
@@ -10354,7 +12149,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I125:I132">
+  <conditionalFormatting sqref="P48:P56">
     <cfRule type="colorScale" priority="177">
       <colorScale>
         <cfvo type="min"/>
@@ -10366,7 +12161,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J125:J132">
+  <conditionalFormatting sqref="J59:J67">
     <cfRule type="colorScale" priority="176">
       <colorScale>
         <cfvo type="min"/>
@@ -10378,7 +12173,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K125:K132">
+  <conditionalFormatting sqref="K59:K67">
     <cfRule type="colorScale" priority="175">
       <colorScale>
         <cfvo type="min"/>
@@ -10390,7 +12185,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L125:L132">
+  <conditionalFormatting sqref="L59:L67">
     <cfRule type="colorScale" priority="174">
       <colorScale>
         <cfvo type="min"/>
@@ -10402,7 +12197,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M125:M132">
+  <conditionalFormatting sqref="M59:M67">
     <cfRule type="colorScale" priority="173">
       <colorScale>
         <cfvo type="min"/>
@@ -10414,7 +12209,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N125:N132">
+  <conditionalFormatting sqref="N59:N67">
     <cfRule type="colorScale" priority="172">
       <colorScale>
         <cfvo type="min"/>
@@ -10426,7 +12221,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O125:O132">
+  <conditionalFormatting sqref="O59:O67">
     <cfRule type="colorScale" priority="171">
       <colorScale>
         <cfvo type="min"/>
@@ -10438,7 +12233,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P125:P132">
+  <conditionalFormatting sqref="P59:P67">
     <cfRule type="colorScale" priority="170">
       <colorScale>
         <cfvo type="min"/>
@@ -10450,19 +12245,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C136:C143">
-    <cfRule type="colorScale" priority="169">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D136:D143">
+  <conditionalFormatting sqref="J70:J78">
     <cfRule type="colorScale" priority="168">
       <colorScale>
         <cfvo type="min"/>
@@ -10474,7 +12257,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E136:E143">
+  <conditionalFormatting sqref="K70:K78">
     <cfRule type="colorScale" priority="167">
       <colorScale>
         <cfvo type="min"/>
@@ -10486,7 +12269,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F136:F143">
+  <conditionalFormatting sqref="L70:L78">
     <cfRule type="colorScale" priority="166">
       <colorScale>
         <cfvo type="min"/>
@@ -10498,7 +12281,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G136:G143">
+  <conditionalFormatting sqref="M70:M78">
     <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="min"/>
@@ -10510,7 +12293,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H136:H143">
+  <conditionalFormatting sqref="N70:N78">
     <cfRule type="colorScale" priority="164">
       <colorScale>
         <cfvo type="min"/>
@@ -10522,7 +12305,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I136:I143">
+  <conditionalFormatting sqref="O70:O78">
     <cfRule type="colorScale" priority="163">
       <colorScale>
         <cfvo type="min"/>
@@ -10534,7 +12317,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J136:J143">
+  <conditionalFormatting sqref="P70:P78">
     <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="min"/>
@@ -10546,7 +12329,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K136:K143">
+  <conditionalFormatting sqref="J81:J89">
     <cfRule type="colorScale" priority="161">
       <colorScale>
         <cfvo type="min"/>
@@ -10558,7 +12341,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L136:L143">
+  <conditionalFormatting sqref="K81:K89">
     <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="min"/>
@@ -10570,7 +12353,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M136:M143">
+  <conditionalFormatting sqref="L81:L89">
     <cfRule type="colorScale" priority="159">
       <colorScale>
         <cfvo type="min"/>
@@ -10582,7 +12365,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N136:N143">
+  <conditionalFormatting sqref="M81:M89">
     <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="min"/>
@@ -10594,7 +12377,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O136:O143">
+  <conditionalFormatting sqref="N81:N89">
     <cfRule type="colorScale" priority="157">
       <colorScale>
         <cfvo type="min"/>
@@ -10606,7 +12389,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P136:P143">
+  <conditionalFormatting sqref="O81:O89">
     <cfRule type="colorScale" priority="156">
       <colorScale>
         <cfvo type="min"/>
@@ -10618,7 +12401,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C147:C154">
+  <conditionalFormatting sqref="P81:P89">
     <cfRule type="colorScale" priority="155">
       <colorScale>
         <cfvo type="min"/>
@@ -10630,7 +12413,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D147:D154">
+  <conditionalFormatting sqref="J92:J100">
     <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="min"/>
@@ -10642,7 +12425,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E147:E154">
+  <conditionalFormatting sqref="K92:K100">
     <cfRule type="colorScale" priority="153">
       <colorScale>
         <cfvo type="min"/>
@@ -10654,7 +12437,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F147:F154">
+  <conditionalFormatting sqref="L92:L100">
     <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="min"/>
@@ -10666,7 +12449,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G147:G154">
+  <conditionalFormatting sqref="M92:M100">
     <cfRule type="colorScale" priority="151">
       <colorScale>
         <cfvo type="min"/>
@@ -10678,7 +12461,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H147:H154">
+  <conditionalFormatting sqref="N92:N100">
     <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="min"/>
@@ -10690,7 +12473,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I147:I154">
+  <conditionalFormatting sqref="O92:O100">
     <cfRule type="colorScale" priority="149">
       <colorScale>
         <cfvo type="min"/>
@@ -10702,7 +12485,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J147:J154">
+  <conditionalFormatting sqref="P92:P100">
     <cfRule type="colorScale" priority="148">
       <colorScale>
         <cfvo type="min"/>
@@ -10714,7 +12497,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K147:K154">
+  <conditionalFormatting sqref="J103:J111">
     <cfRule type="colorScale" priority="147">
       <colorScale>
         <cfvo type="min"/>
@@ -10726,7 +12509,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L147:L154">
+  <conditionalFormatting sqref="K103:K111">
     <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="min"/>
@@ -10738,7 +12521,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M147:M154">
+  <conditionalFormatting sqref="L103:L111">
     <cfRule type="colorScale" priority="145">
       <colorScale>
         <cfvo type="min"/>
@@ -10750,7 +12533,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N147:N154">
+  <conditionalFormatting sqref="M103:M111">
     <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="min"/>
@@ -10762,7 +12545,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O147:O154">
+  <conditionalFormatting sqref="N103:N111">
     <cfRule type="colorScale" priority="143">
       <colorScale>
         <cfvo type="min"/>
@@ -10774,7 +12557,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P147:P154">
+  <conditionalFormatting sqref="O103:O111">
     <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="min"/>
@@ -10786,7 +12569,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C158:C165">
+  <conditionalFormatting sqref="P103:P111">
     <cfRule type="colorScale" priority="141">
       <colorScale>
         <cfvo type="min"/>
@@ -10798,7 +12581,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D158:D165">
+  <conditionalFormatting sqref="J114:J122">
     <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="min"/>
@@ -10810,7 +12593,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E158:E165">
+  <conditionalFormatting sqref="K114:K122">
     <cfRule type="colorScale" priority="139">
       <colorScale>
         <cfvo type="min"/>
@@ -10822,7 +12605,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F158:F165">
+  <conditionalFormatting sqref="L114:L122">
     <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="min"/>
@@ -10834,7 +12617,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G158:G165">
+  <conditionalFormatting sqref="M114:M122">
     <cfRule type="colorScale" priority="137">
       <colorScale>
         <cfvo type="min"/>
@@ -10846,7 +12629,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H158:H165">
+  <conditionalFormatting sqref="N114:N122">
     <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="min"/>
@@ -10858,7 +12641,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I158:I165">
+  <conditionalFormatting sqref="O114:O122">
     <cfRule type="colorScale" priority="135">
       <colorScale>
         <cfvo type="min"/>
@@ -10870,7 +12653,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J158:J165">
+  <conditionalFormatting sqref="P114:P122">
     <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="min"/>
@@ -10882,7 +12665,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K158:K165">
+  <conditionalFormatting sqref="J125:J133">
     <cfRule type="colorScale" priority="133">
       <colorScale>
         <cfvo type="min"/>
@@ -10894,7 +12677,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L158:L165">
+  <conditionalFormatting sqref="K125:K133">
     <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="min"/>
@@ -10906,7 +12689,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M158:M165">
+  <conditionalFormatting sqref="L125:L133">
     <cfRule type="colorScale" priority="131">
       <colorScale>
         <cfvo type="min"/>
@@ -10918,7 +12701,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N158:N165">
+  <conditionalFormatting sqref="M125:M133">
     <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
@@ -10930,7 +12713,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O158:O165">
+  <conditionalFormatting sqref="N125:N133">
     <cfRule type="colorScale" priority="129">
       <colorScale>
         <cfvo type="min"/>
@@ -10942,7 +12725,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P158:P165">
+  <conditionalFormatting sqref="O125:O133">
     <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
@@ -10954,7 +12737,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C169:C176">
+  <conditionalFormatting sqref="P125:P133">
     <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="min"/>
@@ -10966,7 +12749,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D169:D176">
+  <conditionalFormatting sqref="J136:J144">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min"/>
@@ -10978,7 +12761,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E169:E176">
+  <conditionalFormatting sqref="K136:K144">
     <cfRule type="colorScale" priority="125">
       <colorScale>
         <cfvo type="min"/>
@@ -10990,7 +12773,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F169:F176">
+  <conditionalFormatting sqref="L136:L144">
     <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="min"/>
@@ -11002,7 +12785,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G169:G176">
+  <conditionalFormatting sqref="M136:M144">
     <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
@@ -11014,7 +12797,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H169:H176">
+  <conditionalFormatting sqref="N136:N144">
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
@@ -11026,7 +12809,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I169:I176">
+  <conditionalFormatting sqref="O136:O144">
     <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="min"/>
@@ -11038,7 +12821,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J169:J176">
+  <conditionalFormatting sqref="P136:P144">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
@@ -11050,7 +12833,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K169:K176">
+  <conditionalFormatting sqref="J147:J155">
     <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min"/>
@@ -11062,7 +12845,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L169:L176">
+  <conditionalFormatting sqref="K147:K155">
     <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min"/>
@@ -11074,7 +12857,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M169:M176">
+  <conditionalFormatting sqref="L147:L155">
     <cfRule type="colorScale" priority="117">
       <colorScale>
         <cfvo type="min"/>
@@ -11086,7 +12869,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N169:N176">
+  <conditionalFormatting sqref="M147:M155">
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
@@ -11098,7 +12881,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O169:O176">
+  <conditionalFormatting sqref="N147:N155">
     <cfRule type="colorScale" priority="115">
       <colorScale>
         <cfvo type="min"/>
@@ -11110,7 +12893,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P169:P176">
+  <conditionalFormatting sqref="O147:O155">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
@@ -11122,7 +12905,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J12">
+  <conditionalFormatting sqref="P147:P155">
     <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
@@ -11134,7 +12917,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K12">
+  <conditionalFormatting sqref="J158:J166">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
@@ -11146,7 +12929,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L12">
+  <conditionalFormatting sqref="K158:K166">
     <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min"/>
@@ -11158,7 +12941,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M12">
+  <conditionalFormatting sqref="L158:L166">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
@@ -11170,7 +12953,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N12">
+  <conditionalFormatting sqref="M158:M166">
     <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
@@ -11182,7 +12965,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4:O12">
+  <conditionalFormatting sqref="N158:N166">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
@@ -11194,7 +12977,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P4:P12">
+  <conditionalFormatting sqref="O158:O166">
     <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
@@ -11206,7 +12989,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15:J23">
+  <conditionalFormatting sqref="P158:P166">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
@@ -11218,7 +13001,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:K23">
+  <conditionalFormatting sqref="J169:J177">
     <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
@@ -11230,7 +13013,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L15:L23">
+  <conditionalFormatting sqref="K169:K177">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
@@ -11242,7 +13025,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:M23">
+  <conditionalFormatting sqref="L169:L177">
     <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
@@ -11254,7 +13037,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N15:N23">
+  <conditionalFormatting sqref="M169:M177">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
@@ -11266,7 +13049,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O15:O23">
+  <conditionalFormatting sqref="N169:N177">
     <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
@@ -11278,7 +13061,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P15:P23">
+  <conditionalFormatting sqref="O169:O177">
     <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
@@ -11290,7 +13073,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:J34">
+  <conditionalFormatting sqref="P169:P177">
     <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
@@ -11302,7 +13085,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:K34">
+  <conditionalFormatting sqref="S20">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
@@ -11314,7 +13097,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L26:L34">
+  <conditionalFormatting sqref="T20">
     <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
@@ -11326,7 +13109,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M26:M34">
+  <conditionalFormatting sqref="U20">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
@@ -11338,7 +13121,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N26:N34">
+  <conditionalFormatting sqref="V20">
     <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
@@ -11350,7 +13133,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O26:O34">
+  <conditionalFormatting sqref="W20">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
@@ -11362,7 +13145,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P34">
+  <conditionalFormatting sqref="X20">
     <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
@@ -11374,7 +13157,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37:J45">
+  <conditionalFormatting sqref="Y20">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
@@ -11386,7 +13169,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:K45">
+  <conditionalFormatting sqref="Z20">
     <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
@@ -11398,7 +13181,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L37:L45">
+  <conditionalFormatting sqref="AA20">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
@@ -11410,7 +13193,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M37:M45">
+  <conditionalFormatting sqref="AB20">
     <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
@@ -11422,7 +13205,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N37:N45">
+  <conditionalFormatting sqref="AC20">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
@@ -11434,7 +13217,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O37:O45">
+  <conditionalFormatting sqref="AD20">
     <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
@@ -11446,7 +13229,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P37:P45">
+  <conditionalFormatting sqref="AE20">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
@@ -11458,7 +13241,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48:J56">
+  <conditionalFormatting sqref="AF20">
     <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
@@ -11470,7 +13253,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:K56">
+  <conditionalFormatting sqref="Z20">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -11482,7 +13265,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L48:L56">
+  <conditionalFormatting sqref="AA20">
     <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
@@ -11494,7 +13277,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M48:M56">
+  <conditionalFormatting sqref="AB20">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
@@ -11506,7 +13289,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N48:N56">
+  <conditionalFormatting sqref="AC20">
     <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
@@ -11518,7 +13301,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O48:O56">
+  <conditionalFormatting sqref="AD20">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
@@ -11530,7 +13313,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P48:P56">
+  <conditionalFormatting sqref="AE20">
     <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
@@ -11542,7 +13325,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J59:J67">
+  <conditionalFormatting sqref="AF20">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -11554,7 +13337,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:K67">
+  <conditionalFormatting sqref="S22">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -11566,7 +13349,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L59:L67">
+  <conditionalFormatting sqref="T22">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -11578,7 +13361,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M59:M67">
+  <conditionalFormatting sqref="U22">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -11590,7 +13373,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N59:N67">
+  <conditionalFormatting sqref="V22">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -11602,7 +13385,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O59:O67">
+  <conditionalFormatting sqref="W22">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -11614,7 +13397,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P59:P67">
+  <conditionalFormatting sqref="X22">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -11626,7 +13409,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J70:J78">
+  <conditionalFormatting sqref="Y22">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z22">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -11638,7 +13433,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70:K78">
+  <conditionalFormatting sqref="AA22">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -11650,7 +13445,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L70:L78">
+  <conditionalFormatting sqref="AB22">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -11662,7 +13457,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M70:M78">
+  <conditionalFormatting sqref="AC22">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -11674,7 +13469,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N70:N78">
+  <conditionalFormatting sqref="AD22">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -11686,7 +13481,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O70:O78">
+  <conditionalFormatting sqref="AE22">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -11698,7 +13493,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P70:P78">
+  <conditionalFormatting sqref="AF22">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -11710,7 +13505,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J81:J89">
+  <conditionalFormatting sqref="Z22">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -11722,7 +13517,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K81:K89">
+  <conditionalFormatting sqref="AA22">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -11734,7 +13529,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L81:L89">
+  <conditionalFormatting sqref="AB22">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -11746,7 +13541,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M81:M89">
+  <conditionalFormatting sqref="AC22">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -11758,7 +13553,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N81:N89">
+  <conditionalFormatting sqref="AD22">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -11770,7 +13565,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O81:O89">
+  <conditionalFormatting sqref="AE22">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -11782,7 +13577,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P81:P89">
+  <conditionalFormatting sqref="AF22">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -11794,7 +13589,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J92:J100">
+  <conditionalFormatting sqref="S23">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -11806,7 +13601,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K92:K100">
+  <conditionalFormatting sqref="T23">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -11818,7 +13613,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L92:L100">
+  <conditionalFormatting sqref="U23">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -11830,7 +13625,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M92:M100">
+  <conditionalFormatting sqref="V23">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -11842,7 +13637,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N92:N100">
+  <conditionalFormatting sqref="W23">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -11854,7 +13649,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O92:O100">
+  <conditionalFormatting sqref="X23">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -11866,7 +13661,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P92:P100">
+  <conditionalFormatting sqref="Y23">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -11878,7 +13673,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J103:J111">
+  <conditionalFormatting sqref="Z23">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -11890,7 +13685,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K103:K111">
+  <conditionalFormatting sqref="AA23">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -11902,7 +13697,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L103:L111">
+  <conditionalFormatting sqref="AB23">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -11914,7 +13709,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M103:M111">
+  <conditionalFormatting sqref="AC23">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -11926,7 +13721,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N103:N111">
+  <conditionalFormatting sqref="AD23">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -11938,7 +13733,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O103:O111">
+  <conditionalFormatting sqref="AE23">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -11950,7 +13745,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P103:P111">
+  <conditionalFormatting sqref="AF23">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -11962,7 +13757,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J114:J122">
+  <conditionalFormatting sqref="Z23">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -11974,7 +13769,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K114:K122">
+  <conditionalFormatting sqref="AA23">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -11986,7 +13781,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L114:L122">
+  <conditionalFormatting sqref="AB23">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -11998,7 +13793,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M114:M122">
+  <conditionalFormatting sqref="AC23">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -12010,7 +13805,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N114:N122">
+  <conditionalFormatting sqref="AD23">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -12022,7 +13817,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O114:O122">
+  <conditionalFormatting sqref="AE23">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -12034,7 +13829,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P114:P122">
+  <conditionalFormatting sqref="AF23">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -12046,7 +13841,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J125:J133">
+  <conditionalFormatting sqref="S21">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -12058,7 +13853,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K125:K133">
+  <conditionalFormatting sqref="T21">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -12070,7 +13865,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L125:L133">
+  <conditionalFormatting sqref="U21">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -12082,7 +13877,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M125:M133">
+  <conditionalFormatting sqref="V21">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -12094,7 +13889,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N125:N133">
+  <conditionalFormatting sqref="W21">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -12106,7 +13901,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O125:O133">
+  <conditionalFormatting sqref="X21">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -12118,7 +13913,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P125:P133">
+  <conditionalFormatting sqref="Y21">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -12130,7 +13925,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J136:J144">
+  <conditionalFormatting sqref="Z21">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -12142,7 +13937,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K136:K144">
+  <conditionalFormatting sqref="AA21">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -12154,7 +13949,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L136:L144">
+  <conditionalFormatting sqref="AB21">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -12166,7 +13961,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M136:M144">
+  <conditionalFormatting sqref="AC21">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -12178,7 +13973,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N136:N144">
+  <conditionalFormatting sqref="AD21">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -12190,7 +13985,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O136:O144">
+  <conditionalFormatting sqref="AE21">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -12202,7 +13997,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P136:P144">
+  <conditionalFormatting sqref="AF21">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -12214,7 +14009,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J147:J155">
+  <conditionalFormatting sqref="Z21">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -12226,7 +14021,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K147:K155">
+  <conditionalFormatting sqref="AA21">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -12238,7 +14033,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L147:L155">
+  <conditionalFormatting sqref="AB21">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -12250,7 +14045,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M147:M155">
+  <conditionalFormatting sqref="AC21">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -12262,7 +14057,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N147:N155">
+  <conditionalFormatting sqref="AD21">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -12274,7 +14069,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O147:O155">
+  <conditionalFormatting sqref="AE21">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -12286,7 +14081,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P147:P155">
+  <conditionalFormatting sqref="AF21">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -12298,7 +14093,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J158:J166">
+  <conditionalFormatting sqref="S15:S26">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -12310,7 +14105,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K158:K166">
+  <conditionalFormatting sqref="T15:T26">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -12322,7 +14117,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L158:L166">
+  <conditionalFormatting sqref="U15:U26">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -12334,7 +14129,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M158:M166">
+  <conditionalFormatting sqref="V15:V26">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -12346,7 +14141,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N158:N166">
+  <conditionalFormatting sqref="W15:W26">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -12358,7 +14153,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O158:O166">
+  <conditionalFormatting sqref="X15:X26">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -12370,7 +14165,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P158:P166">
+  <conditionalFormatting sqref="Y15:Y26">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -12382,7 +14177,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J169:J177">
+  <conditionalFormatting sqref="Z15:Z26">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -12394,7 +14189,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K169:K177">
+  <conditionalFormatting sqref="AA15:AA26">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -12406,7 +14201,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L169:L177">
+  <conditionalFormatting sqref="AB15:AB26">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -12418,7 +14213,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M169:M177">
+  <conditionalFormatting sqref="AC15:AC26">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -12430,7 +14225,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N169:N177">
+  <conditionalFormatting sqref="AD15:AD26">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -12442,7 +14237,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O169:O177">
+  <conditionalFormatting sqref="AE15:AE26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -12454,7 +14249,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P169:P177">
+  <conditionalFormatting sqref="AF15:AF26">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
